--- a/rnaSample/rnaSample_Brown_11.25.19.xlsx
+++ b/rnaSample/rnaSample_Brown_11.25.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="17">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">RIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biosampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">11.14.19</t>
@@ -83,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -112,12 +109,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -175,7 +166,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,19 +175,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -220,7 +207,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -235,7 +222,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -265,9 +252,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -284,28 +269,28 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -327,652 +312,652 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>16</v>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>16</v>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>16</v>
+      <c r="G7" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>16</v>
+      <c r="G8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>16</v>
+      <c r="G9" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>14</v>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>16</v>
+      <c r="G10" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>14</v>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>16</v>
+      <c r="G11" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>14</v>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>16</v>
+      <c r="G12" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>14</v>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>16</v>
+      <c r="G13" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>14</v>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>16</v>
+      <c r="G14" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>14</v>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>16</v>
+      <c r="G15" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>14</v>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>16</v>
+      <c r="G16" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>14</v>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>16</v>
+      <c r="G17" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>14</v>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>16</v>
+      <c r="G18" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>14</v>
+      <c r="D19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>16</v>
+      <c r="G19" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>14</v>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>16</v>
+      <c r="G20" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>14</v>
+      <c r="D21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>16</v>
+      <c r="G21" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>14</v>
+      <c r="D22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>16</v>
+      <c r="G22" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>14</v>
+      <c r="D23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>16</v>
+      <c r="G23" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>14</v>
+      <c r="D24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>16</v>
+      <c r="G24" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>14</v>
+      <c r="D25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>16</v>
+      <c r="G25" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>14</v>
+      <c r="D26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>16</v>
+      <c r="G26" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>14</v>
+      <c r="D27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>16</v>
+      <c r="G27" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/rnaSample/rnaSample_Brown_11.25.19.xlsx
+++ b/rnaSample/rnaSample_Brown_11.25.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="16">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -67,20 +67,18 @@
     <t xml:space="preserve">11.25.19</t>
   </si>
   <si>
-    <t xml:space="preserve">Trizol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
+    <t xml:space="preserve">TRIzol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -112,13 +110,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -183,7 +174,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -207,10 +198,10 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.67"/>
   </cols>
@@ -267,7 +258,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
@@ -286,11 +277,11 @@
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
+      <c r="G2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -310,7 +301,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
@@ -329,14 +320,14 @@
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -355,14 +346,14 @@
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
@@ -381,14 +372,14 @@
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
@@ -407,14 +398,14 @@
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
@@ -433,14 +424,14 @@
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
@@ -459,14 +450,14 @@
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
@@ -485,14 +476,14 @@
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
@@ -511,14 +502,14 @@
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
@@ -537,14 +528,14 @@
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
@@ -563,14 +554,14 @@
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
@@ -589,14 +580,14 @@
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>12</v>
       </c>
@@ -615,14 +606,14 @@
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
@@ -641,14 +632,14 @@
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>12</v>
       </c>
@@ -667,14 +658,14 @@
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>12</v>
       </c>
@@ -693,14 +684,14 @@
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
@@ -719,14 +710,14 @@
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>12</v>
       </c>
@@ -745,14 +736,14 @@
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
@@ -771,14 +762,14 @@
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
@@ -797,14 +788,14 @@
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>12</v>
       </c>
@@ -823,14 +814,14 @@
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
@@ -849,14 +840,14 @@
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>12</v>
       </c>
@@ -875,14 +866,14 @@
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>12</v>
       </c>
@@ -901,14 +892,14 @@
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>12</v>
       </c>
@@ -927,14 +918,14 @@
       <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>12</v>
       </c>
@@ -953,24 +944,14 @@
       <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>16</v>
+      <c r="G27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G27" type="list">
-      <formula1>"Trizol,DirectZol"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H27" type="list">
-      <formula1>"yes,no"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/rnaSample/rnaSample_Brown_11.25.19.xlsx
+++ b/rnaSample/rnaSample_Brown_11.25.19.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FE3F8C-CA47-1143-84E1-ED4DD2E46A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3814ADF-82A4-1148-AA5C-9D9FEC2815A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19700" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>

--- a/rnaSample/rnaSample_Brown_11.25.19.xlsx
+++ b/rnaSample/rnaSample_Brown_11.25.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3814ADF-82A4-1148-AA5C-9D9FEC2815A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFFC4D4-D3E0-AC41-966C-A0FADDD616ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19700" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="13">
   <si>
     <t>harvestDate</t>
   </si>
@@ -67,15 +67,15 @@
   </si>
   <si>
     <t>TRIzol</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -123,7 +123,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1048576"/>
+      <selection activeCell="H3" sqref="H3:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,8 +515,8 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="b">
-        <v>0</v>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -558,8 +558,8 @@
       <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="b">
-        <v>0</v>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -584,8 +584,8 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="b">
-        <v>0</v>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -610,8 +610,8 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4" t="b">
-        <v>0</v>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -636,8 +636,8 @@
       <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4" t="b">
-        <v>0</v>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -662,8 +662,8 @@
       <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="4" t="b">
-        <v>0</v>
+      <c r="H7" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -688,8 +688,8 @@
       <c r="G8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="b">
-        <v>0</v>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -714,8 +714,8 @@
       <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="4" t="b">
-        <v>0</v>
+      <c r="H9" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -740,8 +740,8 @@
       <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="4" t="b">
-        <v>0</v>
+      <c r="H10" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -766,8 +766,8 @@
       <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="4" t="b">
-        <v>0</v>
+      <c r="H11" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -792,8 +792,8 @@
       <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="4" t="b">
-        <v>0</v>
+      <c r="H12" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -818,8 +818,8 @@
       <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="4" t="b">
-        <v>0</v>
+      <c r="H13" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -844,8 +844,8 @@
       <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="4" t="b">
-        <v>0</v>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -870,8 +870,8 @@
       <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="4" t="b">
-        <v>0</v>
+      <c r="H15" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -896,8 +896,8 @@
       <c r="G16" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="4" t="b">
-        <v>0</v>
+      <c r="H16" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -922,8 +922,8 @@
       <c r="G17" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="4" t="b">
-        <v>0</v>
+      <c r="H17" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -948,8 +948,8 @@
       <c r="G18" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="4" t="b">
-        <v>0</v>
+      <c r="H18" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -974,8 +974,8 @@
       <c r="G19" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="4" t="b">
-        <v>0</v>
+      <c r="H19" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1000,8 +1000,8 @@
       <c r="G20" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="4" t="b">
-        <v>0</v>
+      <c r="H20" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1026,8 +1026,8 @@
       <c r="G21" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="4" t="b">
-        <v>0</v>
+      <c r="H21" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1052,8 +1052,8 @@
       <c r="G22" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="4" t="b">
-        <v>0</v>
+      <c r="H22" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1078,8 +1078,8 @@
       <c r="G23" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="4" t="b">
-        <v>0</v>
+      <c r="H23" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1104,8 +1104,8 @@
       <c r="G24" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="4" t="b">
-        <v>0</v>
+      <c r="H24" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1130,8 +1130,8 @@
       <c r="G25" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="4" t="b">
-        <v>0</v>
+      <c r="H25" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1156,8 +1156,8 @@
       <c r="G26" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="4" t="b">
-        <v>0</v>
+      <c r="H26" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1182,8 +1182,8 @@
       <c r="G27" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="4" t="b">
-        <v>0</v>
+      <c r="H27" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
